--- a/getsymbol/xlsx/1098.xlsx
+++ b/getsymbol/xlsx/1098.xlsx
@@ -1413,7 +1413,7 @@
   <dimension ref="A1:CA218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D7" sqref="A2:CA7648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
